--- a/lesson16-nguyenxuanhung/bai1-football-db-design/JAVA 19 - Nguyen Xuan Hung - Football field booking.xlsx
+++ b/lesson16-nguyenxuanhung/bai1-football-db-design/JAVA 19 - Nguyen Xuan Hung - Football field booking.xlsx
@@ -1,18 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E609E9-8C59-4644-B9C2-12FA650ABD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1965" windowWidth="28800" windowHeight="15435" tabRatio="422" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1968" windowWidth="28800" windowHeight="15432" tabRatio="422" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="B1. Mô hình quan niệm (2)" sheetId="5" r:id="rId1"/>
-    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId2"/>
-    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId3"/>
-    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId4"/>
-    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId5"/>
+    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
+    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
+    <sheet name="4. Cơ sở dữ liệu vật lý" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +51,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="W4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thuộc tính đa trị</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,89 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-thuộc tính đơn trị</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-thuộc tính đa trị</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Đã đặt hàng, đang đóng gói, đang giao, giao thành công, giao thất bại</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="W13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -206,9 +156,6 @@
     <t>xml</t>
   </si>
   <si>
-    <t>ITEM_GROUP</t>
-  </si>
-  <si>
     <t>Cơ sở dữ liệu</t>
   </si>
   <si>
@@ -221,61 +168,13 @@
     <t>Không hỗ trợ KDL danh sách</t>
   </si>
   <si>
-    <t>PROVIDER</t>
-  </si>
-  <si>
     <t>Đối tượng</t>
   </si>
   <si>
     <t>Danh sách</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
     <t>Không có khái niệm thừa kế, nếu 2 hoặc nhiều bảng trùng các thuộc tính, vẫn để thuộc tính ở các bảng khác nhau</t>
-  </si>
-  <si>
-    <t>Inheritance &amp; Composition</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>PAYMENT_METHOD</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>DELIVERY_STATUS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>CRON JOB</t>
-  </si>
-  <si>
-    <t>1. Xác định lại các tập thực thể</t>
-  </si>
-  <si>
-    <t>2. Xác định lại các thuộc tính của mỗi tập thực thể</t>
-  </si>
-  <si>
-    <t>Lưu ý: Thuộc tính &gt;&gt; đơn trị, đa trị, kết hợp, dẫn xuất &gt;&gt; single value</t>
-  </si>
-  <si>
-    <t>3. Xác định khóa của mỗi tập thực thể</t>
-  </si>
-  <si>
-    <t>4. Xác định mối quan hệ giữa các tập thực thể</t>
-  </si>
-  <si>
-    <t>--&gt; Khóa ngoại, ràng buộc</t>
-  </si>
-  <si>
-    <t>Lưu ý: 11, 1n, n1, nn</t>
   </si>
   <si>
     <t>B1. Mô hình quan niệm</t>
@@ -391,7 +290,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -401,7 +300,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,7 +312,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,7 +322,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -433,7 +332,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -443,7 +342,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -464,7 +363,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -474,7 +373,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -484,7 +383,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +393,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,7 +408,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,7 +435,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -546,7 +445,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,7 +455,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,7 +465,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +477,7 @@
       <rPr>
         <sz val="18"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +487,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,96 +495,141 @@
     </r>
   </si>
   <si>
-    <t>Table A</t>
-  </si>
-  <si>
-    <t>Table B</t>
-  </si>
-  <si>
-    <t>Table C</t>
-  </si>
-  <si>
-    <t>field 1</t>
-  </si>
-  <si>
-    <t>field 2</t>
-  </si>
-  <si>
-    <t>field 3</t>
-  </si>
-  <si>
-    <t>field 4</t>
-  </si>
-  <si>
-    <t>field 5</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>Field 1</t>
-  </si>
-  <si>
-    <t>Field 2</t>
-  </si>
-  <si>
-    <t>Field 3</t>
-  </si>
-  <si>
-    <t>Field 4</t>
-  </si>
-  <si>
-    <t>Field 5</t>
-  </si>
-  <si>
     <t>B2. Mô hình logic 
 ERD</t>
   </si>
   <si>
-    <t>Object 1</t>
-  </si>
-  <si>
-    <t>Att 1</t>
-  </si>
-  <si>
-    <t>Att 2</t>
-  </si>
-  <si>
-    <t>Att 3</t>
-  </si>
-  <si>
-    <t>Object 2</t>
-  </si>
-  <si>
-    <t>Object 3</t>
-  </si>
-  <si>
-    <t>Object 4</t>
+    <t>PITCH</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>START_TIME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>TEAM_NAME</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>MATCH(S)</t>
+  </si>
+  <si>
+    <t>TEAM1</t>
+  </si>
+  <si>
+    <t>TEAM2</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>PITCH_BOOKING</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>PITCH_STATUS</t>
+  </si>
+  <si>
+    <t>PITCH_NAME</t>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+  </si>
+  <si>
+    <t>PITCH_FEEDBACK</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>MATCH_STATUS</t>
+  </si>
+  <si>
+    <t>POSITION(S)</t>
+  </si>
+  <si>
+    <t>POSITION_NAME</t>
+  </si>
+  <si>
+    <t>TIME_SLOT(S)</t>
+  </si>
+  <si>
+    <t>TIME_SLOT</t>
+  </si>
+  <si>
+    <t>TOTAL_PRICE</t>
+  </si>
+  <si>
+    <t>ROLE(S)</t>
+  </si>
+  <si>
+    <t>USER(S)</t>
+  </si>
+  <si>
+    <t>BOOKING_TIME</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -705,14 +649,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -720,26 +664,26 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,7 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,6 +801,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -888,46 +849,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>712304</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>273325</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>298136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1825486</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>287481</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>942109</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228021" y="11314042"/>
-          <a:ext cx="10058400" cy="7733548"/>
+          <a:off x="6774873" y="7571772"/>
+          <a:ext cx="13383491" cy="7356650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1201,164 +1150,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2EE39A-42C2-4199-9C19-40FCCF443789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69921875" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+    <row r="10" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1366,14 +1366,20 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+    <row r="11" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1381,12 +1387,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1394,9 +1408,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1407,8 +1425,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+    <row r="14" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1420,8 +1440,10 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+    <row r="15" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1433,8 +1455,10 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+    <row r="16" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1446,7 +1470,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1459,7 +1483,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1472,7 +1496,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1485,66 +1509,66 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -1555,141 +1579,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.796875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="22.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="101" width="22.69921875" style="1" customWidth="1"/>
+    <col min="102" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1697,14 +1837,21 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1712,12 +1859,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1725,9 +1880,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1738,8 +1897,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1751,8 +1912,10 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1764,8 +1927,10 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1777,7 +1942,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1790,7 +1955,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1803,7 +1968,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1816,502 +1981,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="1" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="2:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2320,46 +2012,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="22.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="1" customWidth="1"/>
-    <col min="17" max="105" width="22.7109375" style="1" customWidth="1"/>
-    <col min="106" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="30.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="22.69921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.59765625" style="1" customWidth="1"/>
+    <col min="17" max="105" width="22.69921875" style="1" customWidth="1"/>
+    <col min="106" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+    <row r="3" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
@@ -2369,10 +2061,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+    <row r="4" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
@@ -2382,99 +2074,99 @@
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="P5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="Q5" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2483,7 +2175,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2501,7 +2193,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2518,9 +2210,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="U8" s="11"/>
-    </row>
-    <row r="9" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2538,7 +2230,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2555,10 +2247,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2575,7 +2267,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2593,7 +2285,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2610,9 +2302,9 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2629,10 +2321,10 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
-    </row>
-    <row r="15" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2649,10 +2341,10 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="12"/>
-    </row>
-    <row r="16" spans="2:23" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="2:23" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2668,10 +2360,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="12"/>
-    </row>
-    <row r="17" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2688,10 +2380,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="12"/>
-    </row>
-    <row r="18" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2709,7 +2401,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2727,84 +2419,84 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+    <row r="20" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="K21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="K22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="K23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-    </row>
-    <row r="25" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="9"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2817,34 +2509,34 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -2855,115 +2547,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="22.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="255.59765625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
